--- a/ブログ登録_結合テスト.xlsx
+++ b/ブログ登録_結合テスト.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/ketugou-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{A79FEBA2-56B8-4B68-A8E8-7A4AD747AB6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83B50F3D-15A7-49A8-84BB-96DD9A685537}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{A79FEBA2-56B8-4B68-A8E8-7A4AD747AB6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C87C7BD-A61A-4149-82F9-1C6E84B3213E}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="2" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="88">
   <si>
     <t>項目番号</t>
     <rPh sb="0" eb="2">
@@ -110,19 +110,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2.アカウント登録画面に遷移</t>
-    <rPh sb="7" eb="9">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>とエラーメッセージを赤字で表示の確認</t>
     <rPh sb="16" eb="18">
       <t>カクニン</t>
@@ -140,28 +127,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1.アカウント登録確認画面の「前に戻る」を押す</t>
-    <rPh sb="7" eb="9">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
       <t>メイ</t>
@@ -292,22 +257,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>3.アカウント登録確認画面に遷移</t>
-    <rPh sb="7" eb="9">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>3.アカウント登録完了画面に遷移して確認</t>
     <rPh sb="7" eb="9">
       <t>トウロク</t>
@@ -1281,6 +1230,19 @@
     </rPh>
     <rPh sb="9" eb="11">
       <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カレンダー画面で「アクセス権限がありません。」の表示</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2154,8 +2116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB39F5B-1FA5-42C8-949E-8DCEC752D35D}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2166,52 +2128,52 @@
     <col min="4" max="4" width="116.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="11.4140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="39.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6"/>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="6"/>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="6"/>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" s="3">
-        <v>45797</v>
+        <v>46001</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2245,26 +2207,26 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G8" s="4">
-        <v>45806</v>
+        <v>46002</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I8" s="2"/>
     </row>
@@ -2274,7 +2236,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -2287,7 +2249,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -2296,26 +2258,26 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="4">
+        <v>46002</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="G11" s="4">
-        <v>45806</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="I11" s="2"/>
     </row>
@@ -2325,7 +2287,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -2338,7 +2300,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -2347,26 +2309,26 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="G14" s="4">
-        <v>45806</v>
+        <v>46002</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I14" s="2"/>
     </row>
@@ -2376,7 +2338,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -2389,7 +2351,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -2398,26 +2360,26 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="4">
+        <v>46002</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="G17" s="4">
-        <v>45806</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="I17" s="2"/>
     </row>
@@ -2427,7 +2389,7 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -2440,7 +2402,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -2449,26 +2411,26 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G20" s="4">
-        <v>45806</v>
+        <v>46002</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I20" s="2"/>
     </row>
@@ -2478,7 +2440,7 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -2491,7 +2453,7 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -2500,26 +2462,26 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G23" s="4">
-        <v>45806</v>
+        <v>46002</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I23" s="2"/>
     </row>
@@ -2529,7 +2491,7 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -2538,26 +2500,26 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G25" s="4">
-        <v>45805</v>
+        <v>46002</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I25" s="2"/>
     </row>
@@ -2567,7 +2529,7 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -2576,26 +2538,26 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G27" s="4">
-        <v>45991</v>
+        <v>46002</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I27" s="2"/>
     </row>
@@ -2628,7 +2590,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2639,52 +2601,52 @@
     <col min="4" max="4" width="116.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="11.58203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="39.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6"/>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="6"/>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="6"/>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" s="3">
-        <v>45797</v>
+        <v>46001</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2723,19 +2685,19 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G8" s="4">
-        <v>45805</v>
+        <v>46002</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I8" s="2"/>
     </row>
@@ -2745,7 +2707,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="4"/>
@@ -2758,7 +2720,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -2774,19 +2736,19 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" t="s">
         <v>65</v>
       </c>
-      <c r="E11" t="s">
-        <v>68</v>
-      </c>
       <c r="F11" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G11" s="4">
-        <v>45805</v>
+        <v>46002</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I11" s="2"/>
     </row>
@@ -2796,7 +2758,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="4"/>
@@ -2809,7 +2771,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -2818,26 +2780,26 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G14" s="4">
-        <v>45805</v>
+        <v>46002</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I14" s="5"/>
     </row>
@@ -2847,7 +2809,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -2856,26 +2818,26 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G16" s="4">
-        <v>45805</v>
+        <v>46002</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I16" s="2"/>
     </row>
@@ -2885,7 +2847,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -2894,26 +2856,26 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G18" s="4">
-        <v>45805</v>
+        <v>46002</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I18" s="2"/>
     </row>
@@ -2930,26 +2892,26 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G20" s="4">
-        <v>45991</v>
+        <v>46002</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I20" s="2"/>
     </row>
@@ -2980,8 +2942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55B9A8E5-C2A7-4B04-BCDA-0A5EB24D8FBF}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView zoomScale="79" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="E4" zoomScale="79" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2992,52 +2954,52 @@
     <col min="4" max="4" width="116.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="11.08203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="39.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6"/>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="6"/>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="6"/>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" s="3">
-        <v>45797</v>
+        <v>46001</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3078,19 +3040,19 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G9" s="4">
-        <v>45805</v>
+        <v>46002</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I9" s="2"/>
     </row>
@@ -3100,7 +3062,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -3116,16 +3078,20 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="G11" s="4">
+        <v>46002</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3134,7 +3100,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -3150,16 +3116,20 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="G13" s="4">
+        <v>46002</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3182,16 +3152,20 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="G15" s="4">
+        <v>46002</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3200,7 +3174,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -3212,23 +3186,23 @@
         <v>5</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G17" s="4">
-        <v>45805</v>
+        <v>46002</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I17" s="2"/>
     </row>
@@ -3237,10 +3211,10 @@
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -3253,7 +3227,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -3269,19 +3243,19 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="G20" s="4">
-        <v>45805</v>
+        <v>46002</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I20" s="2"/>
     </row>
@@ -3291,7 +3265,7 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -3304,7 +3278,7 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -3313,26 +3287,26 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="G23" s="4">
-        <v>45805</v>
+        <v>46002</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I23" s="2"/>
     </row>
@@ -3349,26 +3323,26 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G25" s="4">
-        <v>45991</v>
+        <v>46002</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I25" s="2"/>
     </row>
@@ -3379,27 +3353,32 @@
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="2"/>
+      <c r="A27" s="2">
+        <v>9</v>
+      </c>
       <c r="B27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="G27" s="4">
+        <v>46002</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3408,7 +3387,7 @@
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
